--- a/Documents/Team 4_Retrospection.xlsx
+++ b/Documents/Team 4_Retrospection.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8133B372-DF5A-4DFF-91A9-B812FA801042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60E0D84-4F7B-4DFA-A0A1-1692FF5AFA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18765" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint-4.0 Retrospection" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>#</t>
   </si>
@@ -54,18 +54,9 @@
     <t xml:space="preserve">Team </t>
   </si>
   <si>
-    <t>Sprint - 4.0</t>
-  </si>
-  <si>
-    <t>Date: 07-Oct-2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">Completion of task on time </t>
   </si>
   <si>
-    <t>07-APR-2022 (Sprint - 2)</t>
-  </si>
-  <si>
     <t>90% of the planned tasks are completed in Sprint -1</t>
   </si>
   <si>
@@ -91,6 +82,12 @@
   </si>
   <si>
     <t>Team members should come forward and take a few responsibilities.</t>
+  </si>
+  <si>
+    <t>07-APR-2023(Sprint - 2)</t>
+  </si>
+  <si>
+    <t>Sprint - 1.0</t>
   </si>
 </sst>
 </file>
@@ -209,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -240,6 +237,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,7 +524,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +540,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -550,11 +550,11 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
+      <c r="C2" s="11">
+        <v>45023</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
@@ -585,16 +585,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
@@ -605,16 +605,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
@@ -625,12 +625,12 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>6</v>
@@ -641,12 +641,12 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>6</v>
@@ -657,12 +657,12 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>6</v>
